--- a/lib/sample/assets/csv/scorecard_knowledges.xlsx
+++ b/lib/sample/assets/csv/scorecard_knowledges.xlsx
@@ -11,42 +11,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>code</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>sk001</t>
-  </si>
-  <si>
-    <t>Medium</t>
+    <t>name_km</t>
+  </si>
+  <si>
+    <t>name_en</t>
+  </si>
+  <si>
+    <t>sk_001</t>
+  </si>
+  <si>
+    <t>មេរៀនម៉ូឌុលទី ១- ការណែនាំអំពីគណនេយ្យភាពសង្គម (ISAF)</t>
+  </si>
+  <si>
+    <t>Module 1- introduction to ISAF</t>
+  </si>
+  <si>
+    <t>sk_002</t>
+  </si>
+  <si>
+    <t>មេរៀនម៉ូឌុលទី ២៖ ការសម្របសម្រួលការផ្សព្វផ្សាយព័ត៌មានសម្រាប់ប្រជាពលរដ្ឋ (I4C)</t>
+  </si>
+  <si>
+    <t>Module 2: Facilitating the information for citizen (I4C)</t>
+  </si>
+  <si>
+    <t>sk_003</t>
+  </si>
+  <si>
+    <t>មេរៀនម៉ូឌុលទី ៣៖ ការសម្របសម្រួលប័ណ្ណដាក់ពិន្ទុសហគមន៍ (CSC) និង ការវាយតម្លៃខ្លួនឯងដោយអ្នកផ្តល់សេវា (SSA)</t>
+  </si>
+  <si>
+    <t>Module3: Facilitating community scorecard and service provider self-assessment</t>
+  </si>
+  <si>
+    <t>sk_004</t>
+  </si>
+  <si>
+    <t>មេរៀនម៉ូឌុលទី ៤៖ ការសម្របសម្រួលកិច្ចប្រជុំរួម និងការរៀបចំផែនការរួមស្តីពីគណនេយ្យភាពសង្គម (JAAP)</t>
+  </si>
+  <si>
+    <t>Module 4: Facilitating the interface meeting and JAAP.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
-    <font>
+    <font>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="&quot;Khmer OS Battambang&quot;"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,16 +115,27 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -285,16 +356,55 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
